--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_38.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4080361.661423789</v>
+        <v>4080361.66142379</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>830176.0935808952</v>
+        <v>537729.204740198</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.881805149</v>
+        <v>682213.8818051494</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>313.5487078830931</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>98.13583866335729</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>67.65349471023502</v>
       </c>
       <c r="J4" t="n">
-        <v>20.32981046154573</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>245.7043969352917</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>64.66765239407265</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>111.0738440582447</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>54.54548707014996</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>332.2673020532835</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1187,19 +1187,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>225.4716998294293</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.09750908037816</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.89392690056376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>96.84207451769328</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>185.9398259474717</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274066</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>65.57092839063779</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>73.16334503090525</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417122</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>136.1615536360967</v>
+        <v>92.92795078438272</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>37.43384978992891</v>
+        <v>89.27741646322694</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.64843562452448</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>73.50096938092101</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385031</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>149.5562574039292</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>203.8443157566042</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463173</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3013,7 +3013,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593977</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
         <v>150.4527632224541</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329203</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463128</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3247,7 +3247,7 @@
         <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069505</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463128</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3484,10 +3484,10 @@
         <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069516</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593969</v>
       </c>
       <c r="Y37" t="n">
         <v>150.4527632224541</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463127</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539629</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
         <v>153.4156709287486</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3907,7 +3907,7 @@
         <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329096</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
         <v>98.36167833373693</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463173</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27.55584844405814</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0.4280081108291517</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4198,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>777.3160057778002</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="C2" t="n">
-        <v>777.3160057778002</v>
+        <v>1820.94619904841</v>
       </c>
       <c r="D2" t="n">
-        <v>460.6001392292213</v>
+        <v>1462.68050044166</v>
       </c>
       <c r="E2" t="n">
-        <v>74.81188663097703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X2" t="n">
-        <v>1167.455337753612</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="Y2" t="n">
-        <v>777.3160057778002</v>
+        <v>2189.908715988822</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4410,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>243.4143268306408</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="C4" t="n">
-        <v>74.47814390273388</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="D4" t="n">
-        <v>74.47814390273388</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="E4" t="n">
-        <v>74.47814390273388</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="F4" t="n">
-        <v>74.47814390273388</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="G4" t="n">
-        <v>74.47814390273388</v>
+        <v>280.0282177315061</v>
       </c>
       <c r="H4" t="n">
-        <v>74.47814390273388</v>
+        <v>122.2798451640362</v>
       </c>
       <c r="I4" t="n">
-        <v>74.47814390273388</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>471.4038777286581</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>471.4038777286581</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>471.4038777286581</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>471.4038777286581</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>243.4143268306408</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y4" t="n">
-        <v>243.4143268306408</v>
+        <v>280.0282177315061</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1902.75190621448</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C5" t="n">
-        <v>1533.789389274068</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D5" t="n">
-        <v>1175.523690667317</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E5" t="n">
-        <v>789.7354380690731</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>782.7899373198696</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2104.403088154756</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2104.403088154756</v>
       </c>
       <c r="X5" t="n">
-        <v>2289.351746278601</v>
+        <v>2104.403088154756</v>
       </c>
       <c r="Y5" t="n">
-        <v>2289.351746278601</v>
+        <v>1714.263756178945</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>359.2080756496231</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>458.7441094385871</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>458.7441094385871</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V7" t="n">
-        <v>204.0596212327002</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>471.4038777286581</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>877.1727159660345</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C8" t="n">
-        <v>877.1727159660345</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>877.1727159660345</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>877.1727159660345</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>870.227215216831</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4799,13 +4799,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.54646147304</v>
+        <v>2074.587744557557</v>
       </c>
       <c r="W8" t="n">
-        <v>1640.777806202926</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="X8" t="n">
-        <v>1267.312047941846</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y8" t="n">
-        <v>877.1727159660345</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>295.8809182883538</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>295.8809182883538</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>295.8809182883538</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>295.8809182883538</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>148.9909707904434</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="T10" t="n">
-        <v>257.1154545468206</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="U10" t="n">
-        <v>257.1154545468206</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="V10" t="n">
-        <v>257.1154545468206</v>
+        <v>295.8809182883538</v>
       </c>
       <c r="W10" t="n">
-        <v>257.1154545468206</v>
+        <v>295.8809182883538</v>
       </c>
       <c r="X10" t="n">
-        <v>257.1154545468206</v>
+        <v>295.8809182883538</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>295.8809182883538</v>
       </c>
     </row>
     <row r="11">
@@ -5018,40 +5018,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155878</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5121,22 +5121,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.505047571597</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M12" t="n">
-        <v>1346.840367101298</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N12" t="n">
-        <v>2151.251945365449</v>
+        <v>1886.437184265811</v>
       </c>
       <c r="O12" t="n">
-        <v>2151.251945365449</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P12" t="n">
-        <v>2543.548934765509</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
         <v>2612.943493278838</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>195.0373687508851</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="C13" t="n">
-        <v>195.0373687508851</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="D13" t="n">
-        <v>195.0373687508851</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1311.098264550355</v>
       </c>
       <c r="V13" t="n">
-        <v>933.2366688293931</v>
+        <v>1056.413776344468</v>
       </c>
       <c r="W13" t="n">
-        <v>643.8194987924326</v>
+        <v>1056.413776344468</v>
       </c>
       <c r="X13" t="n">
-        <v>415.8299478944152</v>
+        <v>1056.413776344468</v>
       </c>
       <c r="Y13" t="n">
-        <v>195.0373687508851</v>
+        <v>835.6211972009382</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,40 +5288,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
         <v>358.2718071316295</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>661.6060969157201</v>
+        <v>511.6675616580001</v>
       </c>
       <c r="L15" t="n">
-        <v>661.6060969157201</v>
+        <v>741.6306675263493</v>
       </c>
       <c r="M15" t="n">
-        <v>1429.974243308181</v>
+        <v>1509.998813918811</v>
       </c>
       <c r="N15" t="n">
-        <v>1774.494898945799</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O15" t="n">
-        <v>2023.248313029762</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5391,7 +5391,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>626.428715221413</v>
+        <v>318.0094076762823</v>
       </c>
       <c r="C16" t="n">
-        <v>560.1954542207687</v>
+        <v>318.0094076762823</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>318.0094076762823</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>318.0094076762823</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404653</v>
+        <v>171.119460178372</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>171.119460178372</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5464,22 +5464,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W16" t="n">
-        <v>1075.21084526296</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X16" t="n">
-        <v>847.2212943649431</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="Y16" t="n">
-        <v>626.428715221413</v>
+        <v>499.657872506522</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690735</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409608</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748357</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742901</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769786</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373971</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805659</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098443</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250805</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K18" t="n">
-        <v>2500.819361250805</v>
+        <v>2786.879505108311</v>
       </c>
       <c r="L18" t="n">
-        <v>3114.716431007694</v>
+        <v>3016.84261097666</v>
       </c>
       <c r="M18" t="n">
-        <v>3883.084577400155</v>
+        <v>3785.210757369121</v>
       </c>
       <c r="N18" t="n">
-        <v>4687.496155664307</v>
+        <v>4129.73141300674</v>
       </c>
       <c r="O18" t="n">
-        <v>4687.496155664307</v>
+        <v>4799.195174309399</v>
       </c>
       <c r="P18" t="n">
-        <v>4780.830002403664</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Q18" t="n">
-        <v>4850.224560916994</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098069</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021847</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641234</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409491</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475757</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710803</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4340.141453847863</v>
+        <v>916.7755322525273</v>
       </c>
       <c r="C19" t="n">
-        <v>4171.205270919956</v>
+        <v>747.8393493246205</v>
       </c>
       <c r="D19" t="n">
-        <v>4033.668348055212</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E19" t="n">
-        <v>3885.755254472819</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F19" t="n">
-        <v>3738.865306974908</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G19" t="n">
-        <v>3570.689985294729</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>3570.689985294729</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>4749.779469576119</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W19" t="n">
-        <v>4749.779469576119</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X19" t="n">
-        <v>4521.789918678102</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="Y19" t="n">
-        <v>4521.789918678102</v>
+        <v>1098.423997082767</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5729,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
         <v>904.3190116155888</v>
@@ -5747,49 +5747,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690734</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409607</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748356</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.0874327429</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769785</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.62619637397</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805658</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098442</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J21" t="n">
-        <v>2500.819361250804</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="K21" t="n">
-        <v>2911.709630095317</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="L21" t="n">
-        <v>3091.869816131769</v>
+        <v>2745.388427942954</v>
       </c>
       <c r="M21" t="n">
-        <v>3091.869816131769</v>
+        <v>3513.756574335415</v>
       </c>
       <c r="N21" t="n">
-        <v>3896.28139439592</v>
+        <v>4022.405978681254</v>
       </c>
       <c r="O21" t="n">
-        <v>4565.745155698579</v>
+        <v>4271.159392765216</v>
       </c>
       <c r="P21" t="n">
-        <v>4565.745155698579</v>
+        <v>4791.460014500963</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098068</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021846</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641233</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.77681940949</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681289</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475756</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710802</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>677.4616523829102</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>677.4616523829102</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1350.029197634952</v>
+        <v>1408.737062009188</v>
       </c>
       <c r="T22" t="n">
-        <v>1126.243782424458</v>
+        <v>1184.951646798694</v>
       </c>
       <c r="U22" t="n">
-        <v>1126.243782424458</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="V22" t="n">
-        <v>1126.243782424458</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="W22" t="n">
-        <v>1126.243782424458</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X22" t="n">
-        <v>898.2542315264403</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y22" t="n">
-        <v>677.4616523829102</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
@@ -5984,55 +5984,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>2334.498159098442</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2745.388427942954</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3359.285497699843</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M24" t="n">
-        <v>3359.285497699843</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N24" t="n">
-        <v>4163.697075963994</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O24" t="n">
-        <v>4412.450490047957</v>
+        <v>2238.711404795489</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698579</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>324.384017443268</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>155.4478345153611</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557903</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352016</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W25" t="n">
-        <v>954.8146123150552</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>726.8250614170379</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>506.0324822735078</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,25 +6209,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6239,19 +6239,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6303,25 +6303,25 @@
         <v>2334.498159098442</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263799</v>
+        <v>2365.380840095705</v>
       </c>
       <c r="K27" t="n">
-        <v>2786.879505108312</v>
+        <v>2776.271108940218</v>
       </c>
       <c r="L27" t="n">
-        <v>3033.644633014776</v>
+        <v>3006.234214808567</v>
       </c>
       <c r="M27" t="n">
-        <v>3353.979952544478</v>
+        <v>3326.569534338269</v>
       </c>
       <c r="N27" t="n">
-        <v>4158.391530808629</v>
+        <v>3671.090189975887</v>
       </c>
       <c r="O27" t="n">
-        <v>4827.855292111289</v>
+        <v>4340.553951278546</v>
       </c>
       <c r="P27" t="n">
-        <v>4827.855292111289</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="Q27" t="n">
         <v>4860.854573014293</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1070389581962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C28" t="n">
-        <v>244.1070389581962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D28" t="n">
-        <v>244.1070389581962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.921157035281</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488389</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>692.8891689997437</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W28" t="n">
-        <v>692.8891689997437</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X28" t="n">
-        <v>464.8996181017263</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="Y28" t="n">
-        <v>244.1070389581962</v>
+        <v>510.2366179610307</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6455,37 +6455,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6494,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>501.516944078023</v>
+        <v>246.2867756623457</v>
       </c>
       <c r="L30" t="n">
-        <v>501.516944078023</v>
+        <v>476.2498815306949</v>
       </c>
       <c r="M30" t="n">
-        <v>808.8370773579848</v>
+        <v>1092.65561809896</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022017</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3481.793971740468</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C31" t="n">
-        <v>3381.677879852602</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D31" t="n">
-        <v>3300.381331480307</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E31" t="n">
-        <v>3221.288328937955</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F31" t="n">
-        <v>3143.218472480086</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G31" t="n">
-        <v>3043.863241839947</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H31" t="n">
-        <v>2962.265324427932</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I31" t="n">
-        <v>2919.55082408992</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>2999.384087782174</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>3217.02006325513</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>3532.182679494604</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
-        <v>3871.199993490131</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N31" t="n">
-        <v>4209.194673746023</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O31" t="n">
-        <v>4510.520222979764</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P31" t="n">
-        <v>4754.570558813792</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R31" t="n">
-        <v>4818.599560616159</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>4687.499641571752</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
-        <v>4532.5343174013</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>4312.225769654899</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>4126.361372489053</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
-        <v>3905.764293492133</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>3746.594833634156</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y31" t="n">
-        <v>3594.622345530667</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6710,34 +6710,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>550.4487878826037</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L33" t="n">
-        <v>780.4118937509529</v>
+        <v>791.0419058482532</v>
       </c>
       <c r="M33" t="n">
-        <v>1548.780040143414</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="N33" t="n">
-        <v>1548.780040143414</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108343</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229686</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506739</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083219</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
         <v>320.8847398504512</v>
@@ -6853,55 +6853,55 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045219</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010329</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K36" t="n">
-        <v>138.7081686256435</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>311.9354609035372</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M36" t="n">
-        <v>1080.303607295999</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="N36" t="n">
-        <v>1884.71518556015</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O36" t="n">
-        <v>2554.178946862809</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229671</v>
@@ -7090,55 +7090,55 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859418</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7160,25 +7160,25 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7187,13 +7187,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>2334.498159098442</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L39" t="n">
-        <v>2948.395228855331</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M39" t="n">
-        <v>3716.763375247792</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="N39" t="n">
-        <v>4521.174953511943</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O39" t="n">
-        <v>4850.224560916993</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>4850.224560916993</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>4850.224560916993</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,34 +7330,34 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,13 +7409,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7430,7 +7430,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028587</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171746</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="M42" t="n">
-        <v>956.4246760986769</v>
+        <v>1056.145999220165</v>
       </c>
       <c r="N42" t="n">
-        <v>1760.836254362828</v>
+        <v>1400.666654857783</v>
       </c>
       <c r="O42" t="n">
-        <v>2430.300015665487</v>
+        <v>2070.130416160442</v>
       </c>
       <c r="P42" t="n">
-        <v>2612.943493278838</v>
+        <v>2590.431037896189</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7555,13 +7555,13 @@
         <v>398.9545963083209</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7625,10 +7625,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7658,7 +7658,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7667,28 +7667,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>711.1141612171746</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="M45" t="n">
-        <v>1479.212162784076</v>
+        <v>1317.966583862618</v>
       </c>
       <c r="N45" t="n">
-        <v>1823.732818421694</v>
+        <v>1884.71518556015</v>
       </c>
       <c r="O45" t="n">
-        <v>2103.272883640391</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.0663679705859</v>
+        <v>394.9573788353329</v>
       </c>
       <c r="C46" t="n">
-        <v>245.130185042679</v>
+        <v>394.9573788353329</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>394.9573788353329</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028587</v>
@@ -7804,7 +7804,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
@@ -7813,7 +7813,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7822,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609669</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>731.31772835508</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W46" t="n">
-        <v>441.9005583181194</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X46" t="n">
-        <v>441.9005583181194</v>
+        <v>615.749957978863</v>
       </c>
       <c r="Y46" t="n">
-        <v>441.9005583181194</v>
+        <v>394.9573788353329</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8535,7 +8535,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627889</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8781,10 +8781,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>189.166170321061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>251.5132516171839</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9024,10 +9024,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,16 +9255,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>196.2566283283642</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9483,10 +9483,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>320.5343656752804</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9495,13 +9495,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,7 +9723,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,13 +9732,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,13 +9969,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>312.2076800891955</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10212,7 +10212,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,28 +10665,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>313.5314426868375</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599039</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10902,7 +10902,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10911,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>389.9224327922227</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>465.4321901888276</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>49.59188812887589</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>100.2975264511057</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>101.67589270799</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>75.75048333663088</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>12.45391938211566</v>
+        <v>55.68752223382964</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>160.4869601936743</v>
+        <v>108.6433935203763</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.8451328388531</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>124.4198406026822</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>30.27572277800812</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>48.29332756722377</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>152.2761317378792</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.00595453574</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,16 +26068,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26086,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803342</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803344</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.2135016468</v>
       </c>
       <c r="F2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="G2" t="n">
         <v>742955.213501647</v>
       </c>
-      <c r="G2" t="n">
-        <v>742955.2135016469</v>
-      </c>
       <c r="H2" t="n">
-        <v>742955.2135016469</v>
+        <v>742955.213501647</v>
       </c>
       <c r="I2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="K2" t="n">
+        <v>779989.6813710694</v>
+      </c>
+      <c r="L2" t="n">
         <v>779989.6813710693</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>779989.6813710693</v>
+      </c>
+      <c r="N2" t="n">
         <v>779989.6813710694</v>
       </c>
-      <c r="M2" t="n">
-        <v>779989.6813710692</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710695</v>
-      </c>
       <c r="O2" t="n">
-        <v>779989.6813710693</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.510358884090614e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>54505.51210371254</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759206</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905757961</v>
+        <v>787.7936905758897</v>
       </c>
       <c r="G4" t="n">
-        <v>787.793690575833</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759237</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758139</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="K4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.5809318963</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.5809318963</v>
+        <v>23206.58093189641</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758697</v>
       </c>
     </row>
     <row r="5">
@@ -26473,34 +26473,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002543</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002543</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26509,7 +26509,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-31896.41508750425</v>
       </c>
       <c r="C6" t="n">
-        <v>558071.4641270404</v>
+        <v>558071.4641270405</v>
       </c>
       <c r="D6" t="n">
-        <v>558071.4641270406</v>
+        <v>558071.4641270407</v>
       </c>
       <c r="E6" t="n">
         <v>125020.0573854582</v>
       </c>
       <c r="F6" t="n">
+        <v>650180.0938623546</v>
+      </c>
+      <c r="G6" t="n">
         <v>650180.0938623545</v>
       </c>
-      <c r="G6" t="n">
-        <v>650180.0938623543</v>
-      </c>
       <c r="H6" t="n">
-        <v>650180.0938623544</v>
+        <v>650180.0938623545</v>
       </c>
       <c r="I6" t="n">
-        <v>650180.0938623546</v>
+        <v>650180.0938623548</v>
       </c>
       <c r="J6" t="n">
         <v>473756.8746697616</v>
       </c>
       <c r="K6" t="n">
-        <v>604562.482515435</v>
+        <v>604562.4825154351</v>
       </c>
       <c r="L6" t="n">
         <v>659067.9946191475</v>
       </c>
       <c r="M6" t="n">
-        <v>524266.9793853102</v>
+        <v>524266.9793853105</v>
       </c>
       <c r="N6" t="n">
-        <v>659067.9946191477</v>
+        <v>659067.9946191475</v>
       </c>
       <c r="O6" t="n">
-        <v>659067.9946191475</v>
+        <v>659067.9946191476</v>
       </c>
       <c r="P6" t="n">
-        <v>650180.0938623549</v>
+        <v>650180.0938623545</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,13 +26713,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964067</v>
@@ -26741,43 +26741,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,16 +26793,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
         <v>1215.213643253573</v>
@@ -26817,10 +26817,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>68.13189012964067</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,34 +27018,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545562</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>540.9263704990169</v>
+      </c>
+      <c r="N4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990175</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>41.13433373758983</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>283.7945314089045</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>67.3121270821032</v>
       </c>
       <c r="J4" t="n">
-        <v>24.87014872699126</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>168.0797730855033</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>263.0846060760622</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>68.75813612369261</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>170.4896183879343</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,16 +27856,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>81.51686796751153</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>102.2805586407056</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>73.21229317867275</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.690726451531</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,19 +28324,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -31145,7 +31145,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31364,16 +31364,16 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942338</v>
       </c>
       <c r="M6" t="n">
-        <v>162.4518126576413</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>320.3934755282637</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,25 +31987,25 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130947015</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,16 +32075,16 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>124.0118262500146</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -32096,16 +32096,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>228.2510202823684</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,10 +32400,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,34 +32546,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>165.7866148567882</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>288.8175040311201</v>
+        <v>116.2482025354291</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>158.0322539366302</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.3143810587534</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,34 +33257,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>281.7598914746463</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>163.1847820324425</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>341.923382284627</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>70.36758305239209</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,7 +33968,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -33977,22 +33977,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>289.4351445187287</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>81.1072659808965</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>173.459013964758</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647508</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,28 +34442,28 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>224.4726727877919</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M6" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>668.3941377884839</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>396.2595852525857</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35662,13 +35662,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109146</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,13 +35726,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>402.0886902051231</v>
+        <v>250.6356242882343</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>348.0006622602202</v>
@@ -35744,10 +35744,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,28 +35884,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>94.27661286803819</v>
+        <v>62.28222091403399</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>181.9799858954062</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>513.7872771170084</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>154.8430966167898</v>
+        <v>300.7365637610361</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>31.19462726996347</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.33260697273187</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>408.3836895128659</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>622.6320571396618</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178378</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>289.8085800706621</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>574.209347808212</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004662</v>
@@ -37163,13 +37163,13 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520624</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502436</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>174.9770629069633</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>393.9386128803737</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520624</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502436</v>
@@ -37482,7 +37482,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>613.0061743467103</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>332.3733408131816</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520624</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502436</v>
@@ -37719,7 +37719,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>247.7883988702043</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>33.47723987873648</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>775.856567239294</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>572.4733350480121</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4148443.431944209</v>
+        <v>4153382.694793241</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>556108.3997846725</v>
+        <v>556108.3997846709</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.80431246487999</v>
+        <v>43.80431246487684</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250814</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229324</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634325</v>
+        <v>171.7498680634315</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498002</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701373</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>29.84409370098994</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274313</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.950364805198</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056526</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722645</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>58.43974171833503</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151925</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H24" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>152.9037918253699</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056523</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560559</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H27" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0.7644211441615913</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>21.815357885262</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.733841663483</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2888,10 +2888,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H30" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>77.74146402679941</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750046</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.9955446623092</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896942</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274086</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980185964</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>5.107731335945625</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>143.3158222056524</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3836,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.1796758467</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>212.9633354695342</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H45" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9013320701444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T45" t="n">
         <v>192.9654699154601</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>142.4312553669875</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>818.8658378359719</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359719</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
         <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097709</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177361</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036452</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036452</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036452</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533145</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733135</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224092</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280445</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977177</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642692</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791255</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018226</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2652.90231075067</v>
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036452</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204945</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641974</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598696</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4944,67 +4944,67 @@
         <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036452</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036452</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036452</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036452</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036452</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036452</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036452</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866328</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477914</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658215</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502507</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.261789359491</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064352</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064352</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064352</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064352</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064352</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064352</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064352</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064352</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064352</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
         <v>554.6442689908469</v>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5068,10 +5068,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5226,7 +5226,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T13" t="n">
         <v>1158.436939387592</v>
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,13 +5354,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181233</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
         <v>452.5377573864724</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1157.775607842362</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1157.775607842362</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1157.775607842362</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>1157.775607842362</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>929.7860569443444</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>708.9934778008143</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155913</v>
+        <v>904.3190116155902</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805494</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822487</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5582,7 +5582,7 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
@@ -5591,16 +5591,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126484</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>648.0342195052076</v>
+        <v>648.0342195052083</v>
       </c>
       <c r="L18" t="n">
-        <v>1261.931289262096</v>
+        <v>1261.931289262097</v>
       </c>
       <c r="M18" t="n">
         <v>2030.299435654558</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799369</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471198</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473456</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262962</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765198</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706329</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336723</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003444</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5749,55 +5749,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047987</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061688</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
         <v>1890.372576454149</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.2170914602859</v>
+        <v>493.3586382081045</v>
       </c>
       <c r="C22" t="n">
-        <v>97.2170914602859</v>
+        <v>324.4224552801976</v>
       </c>
       <c r="D22" t="n">
-        <v>97.2170914602859</v>
+        <v>324.4224552801976</v>
       </c>
       <c r="E22" t="n">
-        <v>97.2170914602859</v>
+        <v>324.4224552801976</v>
       </c>
       <c r="F22" t="n">
-        <v>97.2170914602859</v>
+        <v>324.4224552801976</v>
       </c>
       <c r="G22" t="n">
-        <v>97.2170914602859</v>
+        <v>156.2471336000182</v>
       </c>
       <c r="H22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473456</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011508</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952639</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583033</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X22" t="n">
-        <v>97.2170914602859</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.2170914602859</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,16 +6065,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047987</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061688</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
         <v>1890.372576454149</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.2170914602859</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C25" t="n">
-        <v>97.2170914602859</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>97.2170914602859</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.2170914602859</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765196</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706327</v>
+        <v>831.5539419898857</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336721</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="X25" t="n">
-        <v>97.2170914602859</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.2170914602859</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="26">
@@ -6205,31 +6205,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I26" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,37 +6238,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614725</v>
@@ -6302,19 +6302,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>2056.693778606512</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>675.0071030383451</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>675.0071030383451</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>675.0071030383451</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119729</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.921157035281</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247869</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>675.0071030383451</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V28" t="n">
-        <v>675.0071030383451</v>
+        <v>909.3712637033469</v>
       </c>
       <c r="W28" t="n">
-        <v>675.0071030383451</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="X28" t="n">
-        <v>675.0071030383451</v>
+        <v>619.9540936663864</v>
       </c>
       <c r="Y28" t="n">
-        <v>675.0071030383451</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="29">
@@ -6460,55 +6460,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,19 +6539,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606512</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1420.389539217702</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1131.26090043126</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V31" t="n">
-        <v>876.5764122253731</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W31" t="n">
-        <v>587.1592421884125</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6715,16 +6715,16 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606512</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473456</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>554.8095831774258</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550605</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610194</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003444</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155918</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795208</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643325</v>
@@ -6961,28 +6961,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231266</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.97260014187</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465304</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614727</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606512</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247869</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383451</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324583</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954977</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
-        <v>97.2170914602859</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7171,25 +7171,25 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899127</v>
@@ -7198,25 +7198,25 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,28 +7241,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>2056.693778606512</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473456</v>
+        <v>1493.756945976139</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1269.971530765645</v>
       </c>
       <c r="U40" t="n">
-        <v>786.0822064765196</v>
+        <v>980.8428919792032</v>
       </c>
       <c r="V40" t="n">
-        <v>531.3977182706327</v>
+        <v>726.1584037733163</v>
       </c>
       <c r="W40" t="n">
-        <v>241.9805482336721</v>
+        <v>436.7412337363557</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,28 +7478,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606512</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>584.7466045204288</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7569,16 +7569,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557903</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V43" t="n">
-        <v>1498.916270557903</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W43" t="n">
-        <v>1209.499100520943</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X43" t="n">
-        <v>981.5095496229253</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y43" t="n">
-        <v>766.3950693506686</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,28 +7715,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571612</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
         <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606512</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1131.26090043126</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>876.5764122253731</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>587.1592421884125</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.314990659902</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714805</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.314990659902</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>191.7034673573993</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.3938331833846</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>90.4740866492011</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338488</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>99.23385149845814</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338483</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>145.6695415024076</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>196.7692954668328</v>
       </c>
     </row>
     <row r="29">
@@ -24855,10 +24855,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>143.8060970315898</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>82.3938331833846</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>133.1420986615188</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644335</v>
       </c>
     </row>
     <row r="38">
@@ -25569,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>192.8130786476576</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>82.3938331833848</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>14.74113413690324</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.621317882560618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26040,10 +26040,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>143.8060970315898</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803343</v>
       </c>
     </row>
     <row r="7">
@@ -26319,43 +26319,43 @@
         <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="E2" t="n">
         <v>742955.2135016469</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="G2" t="n">
         <v>742955.2135016472</v>
       </c>
       <c r="H2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="I2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="J2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="K2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="L2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="N2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="O2" t="n">
         <v>742955.2135016473</v>
       </c>
-      <c r="I2" t="n">
-        <v>742955.2135016476</v>
-      </c>
-      <c r="J2" t="n">
-        <v>742955.2135016475</v>
-      </c>
-      <c r="K2" t="n">
-        <v>742955.2135016475</v>
-      </c>
-      <c r="L2" t="n">
-        <v>742955.2135016476</v>
-      </c>
-      <c r="M2" t="n">
-        <v>742955.2135016476</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016475</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016475</v>
-      </c>
       <c r="P2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="3">
@@ -26371,16 +26371,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.340167940128594e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768953</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>4.897497092315462e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26423,40 +26423,40 @@
         <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806189</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905759075</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905759088</v>
+      </c>
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905757613</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905757574</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.793690575747</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905757665</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905757613</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905757458</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758694</v>
@@ -26475,37 +26475,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340953</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871668</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871669</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871668</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871668</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871668</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871668</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26527,43 +26527,43 @@
         <v>558071.4641270404</v>
       </c>
       <c r="D6" t="n">
-        <v>558071.4641270398</v>
+        <v>558071.4641270406</v>
       </c>
       <c r="E6" t="n">
-        <v>124045.4661257374</v>
+        <v>124922.598259486</v>
       </c>
       <c r="F6" t="n">
-        <v>649205.5026026325</v>
+        <v>650082.6347363826</v>
       </c>
       <c r="G6" t="n">
-        <v>649205.5026026329</v>
+        <v>650082.6347363826</v>
       </c>
       <c r="H6" t="n">
-        <v>649205.5026026332</v>
+        <v>650082.6347363826</v>
       </c>
       <c r="I6" t="n">
-        <v>649205.5026026333</v>
+        <v>650082.6347363826</v>
       </c>
       <c r="J6" t="n">
-        <v>472782.2834100404</v>
+        <v>473659.4155437895</v>
       </c>
       <c r="K6" t="n">
-        <v>649205.5026026333</v>
+        <v>650082.6347363826</v>
       </c>
       <c r="L6" t="n">
-        <v>649205.5026026334</v>
+        <v>650082.6347363825</v>
       </c>
       <c r="M6" t="n">
-        <v>514404.4873687964</v>
+        <v>515281.6195025454</v>
       </c>
       <c r="N6" t="n">
-        <v>649205.5026026333</v>
+        <v>650082.6347363826</v>
       </c>
       <c r="O6" t="n">
-        <v>649205.5026026333</v>
+        <v>650082.6347363828</v>
       </c>
       <c r="P6" t="n">
-        <v>649205.5026026332</v>
+        <v>650082.6347363825</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170873</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541008</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,34 +26795,34 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545564</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26965,16 +26965,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370129</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27017,13 +27017,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990167</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27263,13 +27263,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990167</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448611</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>10.67409010993156</v>
+        <v>10.67409010993487</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853692</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491421</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866232</v>
+        <v>46.83478528866331</v>
       </c>
     </row>
     <row r="11">
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.682195192673605e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340048</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141002</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554476</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727438</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.167479908158</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630673</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405372</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338308</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.861538911987</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.371903895467</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.988205504414</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633813</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727388</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473564</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472038</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141123</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188927</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890694</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396489</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653086</v>
+        <v>115.4815392304395</v>
       </c>
       <c r="L9" t="n">
-        <v>176.416982047801</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983125</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736704</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.315665592305</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.152864647958</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639067</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703499</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131475</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.27496629637267</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619162</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078622</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644452</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492008</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813585</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302252</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246926</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666596</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175859</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383813</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678017</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701169</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695338</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197228</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315616</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32086,13 +32086,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>380.6314029223775</v>
+        <v>380.6314029223778</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32104,13 +32104,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104654</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>261.7559250855776</v>
+        <v>261.7559250855784</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -32341,13 +32341,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361495</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298633</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263752</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337674</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>392.6063366508796</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32578,13 +32578,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508796</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32815,13 +32815,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555639</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,13 +33052,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,28 +33253,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555639</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33289,13 +33289,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565527</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555639</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33526,13 +33526,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555639</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33763,13 +33763,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>224.6051223555639</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34000,13 +34000,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555639</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34237,13 +34237,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927189</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446455</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,28 +34438,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127068</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622984</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555639</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34474,13 +34474,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361494</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892249</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343422</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435305</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492241</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530457</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116801</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898692</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770703</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047505</v>
+        <v>242.1053372686591</v>
       </c>
       <c r="L9" t="n">
-        <v>408.702947571386</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262941</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338906</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245901</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735649</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137343</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713967</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850087</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458882</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557983</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873162</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,13 +35734,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>704.2024327503591</v>
+        <v>704.2024327503594</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303333</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081123</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349825</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>388.3797231237972</v>
+        <v>388.379723123798</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>348.0006622602202</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655656</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187485</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>740.6069989110998</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989110998</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157842</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157842</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502023</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157842</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157842</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>572.6057846157842</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502023</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349822</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157842</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081122</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349582</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.040675600518</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157842</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187483</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
